--- a/biology/Botanique/Calocedrus_macrolepis/Calocedrus_macrolepis.xlsx
+++ b/biology/Botanique/Calocedrus_macrolepis/Calocedrus_macrolepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calocedrus macrolepis est une espèce de plantes du genre Calocedrus de la famille des Cupressaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Calocedrus macrolepis a pour synonymes selon Plants of the World online (POWO)                (23 février 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Calocedrus macrolepis a pour synonymes selon Plants of the World online (POWO)                (23 février 2021) :
 Heyderia macrolepis (Kurz) H.L.Li
 Libocedrus macrolepis (Kurz) Benth. &amp; Hook.f.
 Thuja macrolepis (Kurz) Voss</t>
@@ -544,9 +558,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 février 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 février 2021) :
 variété Calocedrus macrolepis var. formosana (Florin) W.C. Cheng &amp; L.K. Fu
 variété Calocedrus macrolepis var. macrolepis</t>
         </is>
